--- a/biology/Zoologie/Halichoeres_raisneri/Halichoeres_raisneri.xlsx
+++ b/biology/Zoologie/Halichoeres_raisneri/Halichoeres_raisneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halichoeres raisneri est une espèce de poissons osseux de petite taille de la famille des Labridae endémique  des îles Galápagos.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Halichoeres raisneri mesure 90 mm[2]. Les paratypes de 40 à 80 mm[2].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Halichoeres raisneri mesure 90 mm. Les paratypes de 40 à 80 mm.  
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, raisneri, lui a été donné en l'honneur de William R. Raisner, un pilote vétéran mort dans un accident d'ULM le 26 juin 1998 lors de l'expédition durant laquelle cette espèce a été collectée[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, raisneri, lui a été donné en l'honneur de William R. Raisner, un pilote vétéran mort dans un accident d'ULM le 26 juin 1998 lors de l'expédition durant laquelle cette espèce a été collectée. 
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(es) C. C. Baldwin et J. E. McCosker, « Wrasses of the Galápagos Islands, with the description of a new deepwater species of Halichoeres (Perciformes: Labridae) », Revista de Biología Tropical, Vicerractoría Investigación (d), vol. 49 Suppl 1,‎ 1er juillet 2001, p. 89-100 (ISSN 0034-7744 et 2215-2075, PMID 15260157, lire en ligne)</t>
         </is>
